--- a/out/CE/falselink/Figori_algorithm_2.xlsx
+++ b/out/CE/falselink/Figori_algorithm_2.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.81194999999999995</v>
+        <v>0.80579999999999996</v>
       </c>
       <c r="B1">
-        <v>0.78720000000000001</v>
+        <v>0.79335</v>
       </c>
       <c r="C1">
-        <v>0.79949999999999999</v>
+        <v>0.7883</v>
       </c>
       <c r="D1">
-        <v>0.79759999999999998</v>
+        <v>0.79910000000000003</v>
       </c>
       <c r="E1">
-        <v>0.8115</v>
+        <v>0.78595000000000004</v>
       </c>
       <c r="F1">
-        <v>0.77854999999999996</v>
+        <v>0.78634999999999999</v>
       </c>
       <c r="G1">
-        <v>0.79125000000000001</v>
+        <v>0.79405000000000003</v>
       </c>
       <c r="H1">
-        <v>0.81930000000000003</v>
+        <v>0.80840000000000001</v>
       </c>
       <c r="I1">
-        <v>0.80215000000000003</v>
+        <v>0.80095000000000005</v>
       </c>
       <c r="J1">
-        <v>0.82189999999999996</v>
+        <v>0.80135000000000001</v>
       </c>
       <c r="K1">
-        <v>0.79179999999999995</v>
+        <v>0.80649999999999999</v>
       </c>
       <c r="L1">
-        <v>0.79415000000000002</v>
+        <v>0.79710000000000003</v>
       </c>
       <c r="M1">
-        <v>0.81640000000000001</v>
+        <v>0.77629999999999999</v>
       </c>
       <c r="N1">
-        <v>0.78979999999999995</v>
+        <v>0.80894999999999995</v>
       </c>
       <c r="O1">
-        <v>0.82455000000000001</v>
+        <v>0.79584999999999995</v>
       </c>
       <c r="P1">
-        <v>0.79730000000000001</v>
+        <v>0.81115000000000004</v>
       </c>
       <c r="Q1">
-        <v>0.79349999999999998</v>
+        <v>0.77825</v>
       </c>
       <c r="R1">
-        <v>0.80274999999999996</v>
+        <v>0.79479999999999995</v>
       </c>
       <c r="S1">
-        <v>0.80479999999999996</v>
+        <v>0.79474999999999996</v>
       </c>
       <c r="T1">
-        <v>0.81059999999999999</v>
+        <v>0.78734999999999999</v>
       </c>
       <c r="U1">
-        <v>0.77869999999999995</v>
+        <v>0.79420000000000002</v>
       </c>
       <c r="V1">
-        <v>0.80259999999999998</v>
+        <v>0.81205000000000005</v>
       </c>
       <c r="W1">
-        <v>0.7923</v>
+        <v>0.80349999999999999</v>
       </c>
       <c r="X1">
-        <v>0.78364999999999996</v>
+        <v>0.78485000000000005</v>
       </c>
       <c r="Y1">
-        <v>0.80195000000000005</v>
+        <v>0.78134999999999999</v>
       </c>
       <c r="Z1">
-        <v>0.81489999999999996</v>
+        <v>0.82145000000000001</v>
       </c>
       <c r="AA1">
-        <v>0.78900000000000003</v>
+        <v>0.79635</v>
       </c>
       <c r="AB1">
-        <v>0.79510000000000003</v>
+        <v>0.80900000000000005</v>
       </c>
       <c r="AC1">
-        <v>0.81115000000000004</v>
+        <v>0.81579999999999997</v>
       </c>
       <c r="AD1">
-        <v>0.75180000000000002</v>
+        <v>0.78415000000000001</v>
       </c>
       <c r="AE1">
-        <v>0.78249999999999997</v>
+        <v>0.7913</v>
       </c>
       <c r="AF1">
-        <v>0.80474999999999997</v>
+        <v>0.81025000000000003</v>
       </c>
       <c r="AG1">
-        <v>0.79054999999999997</v>
+        <v>0.81420000000000003</v>
       </c>
       <c r="AH1">
-        <v>0.81935000000000002</v>
+        <v>0.80030000000000001</v>
       </c>
       <c r="AI1">
-        <v>0.81230000000000002</v>
+        <v>0.79735</v>
       </c>
       <c r="AJ1">
-        <v>0.80125000000000002</v>
+        <v>0.78610000000000002</v>
       </c>
       <c r="AK1">
-        <v>0.79174999999999995</v>
+        <v>0.78680000000000005</v>
       </c>
       <c r="AL1">
-        <v>0.80479999999999996</v>
+        <v>0.8034</v>
       </c>
       <c r="AM1">
-        <v>0.81874999999999998</v>
+        <v>0.81279999999999997</v>
       </c>
       <c r="AN1">
-        <v>0.79144999999999999</v>
+        <v>0.80835000000000001</v>
       </c>
       <c r="AO1">
-        <v>0.82220000000000004</v>
+        <v>0.81130000000000002</v>
       </c>
       <c r="AP1">
-        <v>0.78849999999999998</v>
+        <v>0.80379999999999996</v>
       </c>
       <c r="AQ1">
-        <v>0.82609999999999995</v>
+        <v>0.81179999999999997</v>
       </c>
       <c r="AR1">
-        <v>0.79944999999999999</v>
+        <v>0.79859999999999998</v>
       </c>
       <c r="AS1">
-        <v>0.81779999999999997</v>
+        <v>0.81174999999999997</v>
       </c>
       <c r="AT1">
-        <v>0.80189999999999995</v>
+        <v>0.79149999999999998</v>
       </c>
       <c r="AU1">
-        <v>0.80279999999999996</v>
+        <v>0.80940000000000001</v>
       </c>
       <c r="AV1">
-        <v>0.80789999999999995</v>
+        <v>0.83650000000000002</v>
       </c>
       <c r="AW1">
-        <v>0.81925000000000003</v>
+        <v>0.79469999999999996</v>
       </c>
       <c r="AX1">
-        <v>0.79605000000000004</v>
+        <v>0.80320000000000003</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.80425000000000002</v>
+        <v>0.79769999999999996</v>
       </c>
       <c r="B2">
-        <v>0.77554999999999996</v>
+        <v>0.77510000000000001</v>
       </c>
       <c r="C2">
-        <v>0.78344999999999998</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="D2">
-        <v>0.78669999999999995</v>
+        <v>0.79435</v>
       </c>
       <c r="E2">
-        <v>0.80535000000000001</v>
+        <v>0.77690000000000003</v>
       </c>
       <c r="F2">
+        <v>0.78615000000000002</v>
+      </c>
+      <c r="G2">
+        <v>0.81035000000000001</v>
+      </c>
+      <c r="H2">
+        <v>0.80064999999999997</v>
+      </c>
+      <c r="I2">
+        <v>0.79795000000000005</v>
+      </c>
+      <c r="J2">
+        <v>0.80035000000000001</v>
+      </c>
+      <c r="K2">
+        <v>0.81335000000000002</v>
+      </c>
+      <c r="L2">
+        <v>0.78105000000000002</v>
+      </c>
+      <c r="M2">
+        <v>0.77605000000000002</v>
+      </c>
+      <c r="N2">
+        <v>0.80449999999999999</v>
+      </c>
+      <c r="O2">
+        <v>0.8075</v>
+      </c>
+      <c r="P2">
+        <v>0.82274999999999998</v>
+      </c>
+      <c r="Q2">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="R2">
+        <v>0.80195000000000005</v>
+      </c>
+      <c r="S2">
+        <v>0.80049999999999999</v>
+      </c>
+      <c r="T2">
+        <v>0.78349999999999997</v>
+      </c>
+      <c r="U2">
+        <v>0.81555</v>
+      </c>
+      <c r="V2">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="W2">
+        <v>0.78625</v>
+      </c>
+      <c r="X2">
+        <v>0.78764999999999996</v>
+      </c>
+      <c r="Y2">
+        <v>0.77710000000000001</v>
+      </c>
+      <c r="Z2">
+        <v>0.81474999999999997</v>
+      </c>
+      <c r="AA2">
+        <v>0.79754999999999998</v>
+      </c>
+      <c r="AB2">
+        <v>0.79654999999999998</v>
+      </c>
+      <c r="AC2">
+        <v>0.80940000000000001</v>
+      </c>
+      <c r="AD2">
+        <v>0.78444999999999998</v>
+      </c>
+      <c r="AE2">
+        <v>0.78205000000000002</v>
+      </c>
+      <c r="AF2">
+        <v>0.80235000000000001</v>
+      </c>
+      <c r="AG2">
+        <v>0.81645000000000001</v>
+      </c>
+      <c r="AH2">
+        <v>0.78954999999999997</v>
+      </c>
+      <c r="AI2">
+        <v>0.79795000000000005</v>
+      </c>
+      <c r="AJ2">
+        <v>0.78580000000000005</v>
+      </c>
+      <c r="AK2">
         <v>0.77044999999999997</v>
       </c>
-      <c r="G2">
-        <v>0.78169999999999995</v>
-      </c>
-      <c r="H2">
-        <v>0.81</v>
-      </c>
-      <c r="I2">
-        <v>0.80205000000000004</v>
-      </c>
-      <c r="J2">
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="K2">
-        <v>0.81084999999999996</v>
-      </c>
-      <c r="L2">
-        <v>0.80279999999999996</v>
-      </c>
-      <c r="M2">
-        <v>0.80574999999999997</v>
-      </c>
-      <c r="N2">
-        <v>0.77485000000000004</v>
-      </c>
-      <c r="O2">
-        <v>0.82974999999999999</v>
-      </c>
-      <c r="P2">
-        <v>0.79984999999999995</v>
-      </c>
-      <c r="Q2">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="R2">
-        <v>0.79544999999999999</v>
-      </c>
-      <c r="S2">
-        <v>0.81105000000000005</v>
-      </c>
-      <c r="T2">
-        <v>0.79949999999999999</v>
-      </c>
-      <c r="U2">
-        <v>0.79890000000000005</v>
-      </c>
-      <c r="V2">
-        <v>0.81230000000000002</v>
-      </c>
-      <c r="W2">
-        <v>0.79454999999999998</v>
-      </c>
-      <c r="X2">
-        <v>0.79349999999999998</v>
-      </c>
-      <c r="Y2">
-        <v>0.79735</v>
-      </c>
-      <c r="Z2">
-        <v>0.81779999999999997</v>
-      </c>
-      <c r="AA2">
-        <v>0.77949999999999997</v>
-      </c>
-      <c r="AB2">
-        <v>0.76980000000000004</v>
-      </c>
-      <c r="AC2">
-        <v>0.8014</v>
-      </c>
-      <c r="AD2">
-        <v>0.73934999999999995</v>
-      </c>
-      <c r="AE2">
-        <v>0.77070000000000005</v>
-      </c>
-      <c r="AF2">
-        <v>0.80174999999999996</v>
-      </c>
-      <c r="AG2">
-        <v>0.77825</v>
-      </c>
-      <c r="AH2">
-        <v>0.81869999999999998</v>
-      </c>
-      <c r="AI2">
-        <v>0.80794999999999995</v>
-      </c>
-      <c r="AJ2">
-        <v>0.78290000000000004</v>
-      </c>
-      <c r="AK2">
-        <v>0.77080000000000004</v>
-      </c>
       <c r="AL2">
-        <v>0.78339999999999999</v>
+        <v>0.78739999999999999</v>
       </c>
       <c r="AM2">
-        <v>0.81574999999999998</v>
+        <v>0.81815000000000004</v>
       </c>
       <c r="AN2">
-        <v>0.78995000000000004</v>
+        <v>0.79225000000000001</v>
       </c>
       <c r="AO2">
-        <v>0.81215000000000004</v>
+        <v>0.80445</v>
       </c>
       <c r="AP2">
-        <v>0.79935</v>
+        <v>0.80059999999999998</v>
       </c>
       <c r="AQ2">
-        <v>0.81279999999999997</v>
+        <v>0.79269999999999996</v>
       </c>
       <c r="AR2">
-        <v>0.81830000000000003</v>
+        <v>0.79864999999999997</v>
       </c>
       <c r="AS2">
-        <v>0.83265</v>
+        <v>0.81345000000000001</v>
       </c>
       <c r="AT2">
-        <v>0.80700000000000005</v>
+        <v>0.78210000000000002</v>
       </c>
       <c r="AU2">
-        <v>0.80364999999999998</v>
+        <v>0.80249999999999999</v>
       </c>
       <c r="AV2">
-        <v>0.81364999999999998</v>
+        <v>0.83809999999999996</v>
       </c>
       <c r="AW2">
-        <v>0.81220000000000003</v>
+        <v>0.78180000000000005</v>
       </c>
       <c r="AX2">
-        <v>0.79400000000000004</v>
+        <v>0.7913</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.80195000000000005</v>
+        <v>0.75754999999999995</v>
       </c>
       <c r="B3">
-        <v>0.76995000000000002</v>
+        <v>0.75205</v>
       </c>
       <c r="C3">
-        <v>0.78369999999999995</v>
+        <v>0.78669999999999995</v>
       </c>
       <c r="D3">
-        <v>0.77880000000000005</v>
+        <v>0.79005000000000003</v>
       </c>
       <c r="E3">
-        <v>0.79584999999999995</v>
+        <v>0.76585000000000003</v>
       </c>
       <c r="F3">
-        <v>0.73845000000000005</v>
+        <v>0.76675000000000004</v>
       </c>
       <c r="G3">
-        <v>0.76265000000000005</v>
+        <v>0.79120000000000001</v>
       </c>
       <c r="H3">
-        <v>0.78315000000000001</v>
+        <v>0.77944999999999998</v>
       </c>
       <c r="I3">
-        <v>0.79790000000000005</v>
+        <v>0.78259999999999996</v>
       </c>
       <c r="J3">
-        <v>0.79915000000000003</v>
+        <v>0.78674999999999995</v>
       </c>
       <c r="K3">
-        <v>0.80320000000000003</v>
+        <v>0.79605000000000004</v>
       </c>
       <c r="L3">
-        <v>0.80100000000000005</v>
+        <v>0.78354999999999997</v>
       </c>
       <c r="M3">
-        <v>0.80035000000000001</v>
+        <v>0.75719999999999998</v>
       </c>
       <c r="N3">
-        <v>0.75949999999999995</v>
+        <v>0.77559999999999996</v>
       </c>
       <c r="O3">
-        <v>0.82965</v>
+        <v>0.80330000000000001</v>
       </c>
       <c r="P3">
-        <v>0.78069999999999995</v>
+        <v>0.81240000000000001</v>
       </c>
       <c r="Q3">
-        <v>0.77600000000000002</v>
+        <v>0.77949999999999997</v>
       </c>
       <c r="R3">
-        <v>0.79310000000000003</v>
+        <v>0.80059999999999998</v>
       </c>
       <c r="S3">
-        <v>0.8034</v>
+        <v>0.78674999999999995</v>
       </c>
       <c r="T3">
-        <v>0.77100000000000002</v>
+        <v>0.78080000000000005</v>
       </c>
       <c r="U3">
-        <v>0.79730000000000001</v>
+        <v>0.81535000000000002</v>
       </c>
       <c r="V3">
-        <v>0.79625000000000001</v>
+        <v>0.80779999999999996</v>
       </c>
       <c r="W3">
+        <v>0.79384999999999994</v>
+      </c>
+      <c r="X3">
+        <v>0.78705000000000003</v>
+      </c>
+      <c r="Y3">
+        <v>0.76129999999999998</v>
+      </c>
+      <c r="Z3">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="AA3">
+        <v>0.78044999999999998</v>
+      </c>
+      <c r="AB3">
+        <v>0.79944999999999999</v>
+      </c>
+      <c r="AC3">
+        <v>0.79990000000000006</v>
+      </c>
+      <c r="AD3">
+        <v>0.77834999999999999</v>
+      </c>
+      <c r="AE3">
+        <v>0.77634999999999998</v>
+      </c>
+      <c r="AF3">
         <v>0.79535</v>
       </c>
-      <c r="X3">
-        <v>0.78105000000000002</v>
-      </c>
-      <c r="Y3">
-        <v>0.77449999999999997</v>
-      </c>
-      <c r="Z3">
-        <v>0.80345</v>
-      </c>
-      <c r="AA3">
-        <v>0.7732</v>
-      </c>
-      <c r="AB3">
-        <v>0.75760000000000005</v>
-      </c>
-      <c r="AC3">
-        <v>0.78110000000000002</v>
-      </c>
-      <c r="AD3">
-        <v>0.73765000000000003</v>
-      </c>
-      <c r="AE3">
-        <v>0.76970000000000005</v>
-      </c>
-      <c r="AF3">
-        <v>0.78454999999999997</v>
-      </c>
       <c r="AG3">
-        <v>0.77180000000000004</v>
+        <v>0.80920000000000003</v>
       </c>
       <c r="AH3">
-        <v>0.80784999999999996</v>
+        <v>0.79530000000000001</v>
       </c>
       <c r="AI3">
-        <v>0.81040000000000001</v>
+        <v>0.80905000000000005</v>
       </c>
       <c r="AJ3">
-        <v>0.79325000000000001</v>
+        <v>0.77754999999999996</v>
       </c>
       <c r="AK3">
-        <v>0.77434999999999998</v>
+        <v>0.76300000000000001</v>
       </c>
       <c r="AL3">
-        <v>0.78510000000000002</v>
+        <v>0.78490000000000004</v>
       </c>
       <c r="AM3">
-        <v>0.81499999999999995</v>
+        <v>0.80595000000000006</v>
       </c>
       <c r="AN3">
-        <v>0.78420000000000001</v>
+        <v>0.81089999999999995</v>
       </c>
       <c r="AO3">
-        <v>0.79110000000000003</v>
+        <v>0.80745</v>
       </c>
       <c r="AP3">
-        <v>0.78274999999999995</v>
+        <v>0.78590000000000004</v>
       </c>
       <c r="AQ3">
-        <v>0.79244999999999999</v>
+        <v>0.79879999999999995</v>
       </c>
       <c r="AR3">
-        <v>0.80684999999999996</v>
+        <v>0.77759999999999996</v>
       </c>
       <c r="AS3">
-        <v>0.80994999999999995</v>
+        <v>0.78664999999999996</v>
       </c>
       <c r="AT3">
-        <v>0.78864999999999996</v>
+        <v>0.77205000000000001</v>
       </c>
       <c r="AU3">
-        <v>0.80064999999999997</v>
+        <v>0.78215000000000001</v>
       </c>
       <c r="AV3">
-        <v>0.79264999999999997</v>
+        <v>0.81805000000000005</v>
       </c>
       <c r="AW3">
-        <v>0.7954</v>
+        <v>0.76219999999999999</v>
       </c>
       <c r="AX3">
-        <v>0.77390000000000003</v>
+        <v>0.78935</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.78779999999999994</v>
+        <v>0.72819999999999996</v>
       </c>
       <c r="B4">
-        <v>0.74839999999999995</v>
+        <v>0.74765000000000004</v>
       </c>
       <c r="C4">
-        <v>0.76700000000000002</v>
+        <v>0.73004999999999998</v>
       </c>
       <c r="D4">
-        <v>0.75719999999999998</v>
+        <v>0.77315</v>
       </c>
       <c r="E4">
-        <v>0.77829999999999999</v>
+        <v>0.74544999999999995</v>
       </c>
       <c r="F4">
-        <v>0.74375000000000002</v>
+        <v>0.75095000000000001</v>
       </c>
       <c r="G4">
-        <v>0.75575000000000003</v>
+        <v>0.75444999999999995</v>
       </c>
       <c r="H4">
-        <v>0.76275000000000004</v>
+        <v>0.77969999999999995</v>
       </c>
       <c r="I4">
-        <v>0.78764999999999996</v>
+        <v>0.74639999999999995</v>
       </c>
       <c r="J4">
-        <v>0.79430000000000001</v>
+        <v>0.7712</v>
       </c>
       <c r="K4">
-        <v>0.77529999999999999</v>
+        <v>0.78769999999999996</v>
       </c>
       <c r="L4">
-        <v>0.76870000000000005</v>
+        <v>0.76205000000000001</v>
       </c>
       <c r="M4">
-        <v>0.76949999999999996</v>
+        <v>0.74824999999999997</v>
       </c>
       <c r="N4">
-        <v>0.75475000000000003</v>
+        <v>0.75885000000000002</v>
       </c>
       <c r="O4">
-        <v>0.81089999999999995</v>
+        <v>0.78395000000000004</v>
       </c>
       <c r="P4">
-        <v>0.74409999999999998</v>
+        <v>0.79790000000000005</v>
       </c>
       <c r="Q4">
-        <v>0.78354999999999997</v>
+        <v>0.752</v>
       </c>
       <c r="R4">
-        <v>0.75690000000000002</v>
+        <v>0.78349999999999997</v>
       </c>
       <c r="S4">
-        <v>0.79305000000000003</v>
+        <v>0.76239999999999997</v>
       </c>
       <c r="T4">
-        <v>0.77005000000000001</v>
+        <v>0.74675000000000002</v>
       </c>
       <c r="U4">
-        <v>0.78979999999999995</v>
+        <v>0.79769999999999996</v>
       </c>
       <c r="V4">
-        <v>0.76365000000000005</v>
+        <v>0.77175000000000005</v>
       </c>
       <c r="W4">
-        <v>0.74795</v>
+        <v>0.77895000000000003</v>
       </c>
       <c r="X4">
-        <v>0.75590000000000002</v>
+        <v>0.76385000000000003</v>
       </c>
       <c r="Y4">
-        <v>0.74934999999999996</v>
+        <v>0.74444999999999995</v>
       </c>
       <c r="Z4">
-        <v>0.77995000000000003</v>
+        <v>0.77415</v>
       </c>
       <c r="AA4">
+        <v>0.76244999999999996</v>
+      </c>
+      <c r="AB4">
+        <v>0.79195000000000004</v>
+      </c>
+      <c r="AC4">
+        <v>0.78334999999999999</v>
+      </c>
+      <c r="AD4">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="AE4">
+        <v>0.75024999999999997</v>
+      </c>
+      <c r="AF4">
+        <v>0.76785000000000003</v>
+      </c>
+      <c r="AG4">
+        <v>0.75934999999999997</v>
+      </c>
+      <c r="AH4">
+        <v>0.76690000000000003</v>
+      </c>
+      <c r="AI4">
+        <v>0.77825</v>
+      </c>
+      <c r="AJ4">
+        <v>0.75324999999999998</v>
+      </c>
+      <c r="AK4">
+        <v>0.74929999999999997</v>
+      </c>
+      <c r="AL4">
+        <v>0.76485000000000003</v>
+      </c>
+      <c r="AM4">
+        <v>0.79720000000000002</v>
+      </c>
+      <c r="AN4">
+        <v>0.76865000000000006</v>
+      </c>
+      <c r="AO4">
+        <v>0.77375000000000005</v>
+      </c>
+      <c r="AP4">
         <v>0.75349999999999995</v>
       </c>
-      <c r="AB4">
-        <v>0.75165000000000004</v>
-      </c>
-      <c r="AC4">
-        <v>0.7651</v>
-      </c>
-      <c r="AD4">
-        <v>0.72855000000000003</v>
-      </c>
-      <c r="AE4">
-        <v>0.75685000000000002</v>
-      </c>
-      <c r="AF4">
-        <v>0.76315</v>
-      </c>
-      <c r="AG4">
-        <v>0.75014999999999998</v>
-      </c>
-      <c r="AH4">
-        <v>0.81225000000000003</v>
-      </c>
-      <c r="AI4">
-        <v>0.76195000000000002</v>
-      </c>
-      <c r="AJ4">
-        <v>0.77429999999999999</v>
-      </c>
-      <c r="AK4">
-        <v>0.74975000000000003</v>
-      </c>
-      <c r="AL4">
-        <v>0.75885000000000002</v>
-      </c>
-      <c r="AM4">
-        <v>0.79554999999999998</v>
-      </c>
-      <c r="AN4">
-        <v>0.75565000000000004</v>
-      </c>
-      <c r="AO4">
-        <v>0.78610000000000002</v>
-      </c>
-      <c r="AP4">
-        <v>0.77644999999999997</v>
-      </c>
       <c r="AQ4">
-        <v>0.77925</v>
+        <v>0.79025000000000001</v>
       </c>
       <c r="AR4">
-        <v>0.76970000000000005</v>
+        <v>0.74539999999999995</v>
       </c>
       <c r="AS4">
-        <v>0.76854999999999996</v>
+        <v>0.77195000000000003</v>
       </c>
       <c r="AT4">
-        <v>0.76324999999999998</v>
+        <v>0.74555000000000005</v>
       </c>
       <c r="AU4">
-        <v>0.78520000000000001</v>
+        <v>0.78159999999999996</v>
       </c>
       <c r="AV4">
-        <v>0.78359999999999996</v>
+        <v>0.79110000000000003</v>
       </c>
       <c r="AW4">
-        <v>0.76854999999999996</v>
+        <v>0.74209999999999998</v>
       </c>
       <c r="AX4">
-        <v>0.76095000000000002</v>
+        <v>0.7571</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.76224999999999998</v>
+        <v>0.72345000000000004</v>
       </c>
       <c r="B5">
-        <v>0.71184999999999998</v>
+        <v>0.71340000000000003</v>
       </c>
       <c r="C5">
-        <v>0.74775000000000003</v>
+        <v>0.72104999999999997</v>
       </c>
       <c r="D5">
-        <v>0.74655000000000005</v>
+        <v>0.74429999999999996</v>
       </c>
       <c r="E5">
-        <v>0.76285000000000003</v>
+        <v>0.72889999999999999</v>
       </c>
       <c r="F5">
-        <v>0.72470000000000001</v>
+        <v>0.73709999999999998</v>
       </c>
       <c r="G5">
-        <v>0.71109999999999995</v>
+        <v>0.73429999999999995</v>
       </c>
       <c r="H5">
-        <v>0.73665000000000003</v>
+        <v>0.75439999999999996</v>
       </c>
       <c r="I5">
-        <v>0.75405</v>
+        <v>0.72855000000000003</v>
       </c>
       <c r="J5">
-        <v>0.74929999999999997</v>
+        <v>0.74409999999999998</v>
       </c>
       <c r="K5">
-        <v>0.7419</v>
+        <v>0.73619999999999997</v>
       </c>
       <c r="L5">
+        <v>0.73404999999999998</v>
+      </c>
+      <c r="M5">
+        <v>0.72150000000000003</v>
+      </c>
+      <c r="N5">
+        <v>0.71814999999999996</v>
+      </c>
+      <c r="O5">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="P5">
+        <v>0.76805000000000001</v>
+      </c>
+      <c r="Q5">
+        <v>0.72975000000000001</v>
+      </c>
+      <c r="R5">
+        <v>0.75760000000000005</v>
+      </c>
+      <c r="S5">
+        <v>0.73995</v>
+      </c>
+      <c r="T5">
+        <v>0.73334999999999995</v>
+      </c>
+      <c r="U5">
+        <v>0.77139999999999997</v>
+      </c>
+      <c r="V5">
+        <v>0.74634999999999996</v>
+      </c>
+      <c r="W5">
+        <v>0.74214999999999998</v>
+      </c>
+      <c r="X5">
+        <v>0.74209999999999998</v>
+      </c>
+      <c r="Y5">
+        <v>0.70435000000000003</v>
+      </c>
+      <c r="Z5">
+        <v>0.75129999999999997</v>
+      </c>
+      <c r="AA5">
+        <v>0.74895</v>
+      </c>
+      <c r="AB5">
+        <v>0.75449999999999995</v>
+      </c>
+      <c r="AC5">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="AD5">
+        <v>0.72294999999999998</v>
+      </c>
+      <c r="AE5">
+        <v>0.74850000000000005</v>
+      </c>
+      <c r="AF5">
+        <v>0.72645000000000004</v>
+      </c>
+      <c r="AG5">
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="AH5">
+        <v>0.72675000000000001</v>
+      </c>
+      <c r="AI5">
+        <v>0.74734999999999996</v>
+      </c>
+      <c r="AJ5">
+        <v>0.72919999999999996</v>
+      </c>
+      <c r="AK5">
+        <v>0.73609999999999998</v>
+      </c>
+      <c r="AL5">
+        <v>0.76924999999999999</v>
+      </c>
+      <c r="AM5">
+        <v>0.76954999999999996</v>
+      </c>
+      <c r="AN5">
+        <v>0.74790000000000001</v>
+      </c>
+      <c r="AO5">
+        <v>0.74809999999999999</v>
+      </c>
+      <c r="AP5">
+        <v>0.74460000000000004</v>
+      </c>
+      <c r="AQ5">
+        <v>0.74595</v>
+      </c>
+      <c r="AR5">
         <v>0.73350000000000004</v>
       </c>
-      <c r="M5">
-        <v>0.74070000000000003</v>
-      </c>
-      <c r="N5">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="O5">
-        <v>0.76659999999999995</v>
-      </c>
-      <c r="P5">
-        <v>0.73245000000000005</v>
-      </c>
-      <c r="Q5">
-        <v>0.75744999999999996</v>
-      </c>
-      <c r="R5">
-        <v>0.73170000000000002</v>
-      </c>
-      <c r="S5">
-        <v>0.76049999999999995</v>
-      </c>
-      <c r="T5">
-        <v>0.71945000000000003</v>
-      </c>
-      <c r="U5">
-        <v>0.75705</v>
-      </c>
-      <c r="V5">
-        <v>0.71199999999999997</v>
-      </c>
-      <c r="W5">
-        <v>0.72494999999999998</v>
-      </c>
-      <c r="X5">
-        <v>0.75185000000000002</v>
-      </c>
-      <c r="Y5">
-        <v>0.71730000000000005</v>
-      </c>
-      <c r="Z5">
-        <v>0.73665000000000003</v>
-      </c>
-      <c r="AA5">
-        <v>0.72794999999999999</v>
-      </c>
-      <c r="AB5">
-        <v>0.71945000000000003</v>
-      </c>
-      <c r="AC5">
-        <v>0.71779999999999999</v>
-      </c>
-      <c r="AD5">
-        <v>0.70520000000000005</v>
-      </c>
-      <c r="AE5">
-        <v>0.72850000000000004</v>
-      </c>
-      <c r="AF5">
-        <v>0.7339</v>
-      </c>
-      <c r="AG5">
-        <v>0.73270000000000002</v>
-      </c>
-      <c r="AH5">
-        <v>0.77305000000000001</v>
-      </c>
-      <c r="AI5">
-        <v>0.75280000000000002</v>
-      </c>
-      <c r="AJ5">
-        <v>0.73794999999999999</v>
-      </c>
-      <c r="AK5">
-        <v>0.74004999999999999</v>
-      </c>
-      <c r="AL5">
-        <v>0.74345000000000006</v>
-      </c>
-      <c r="AM5">
-        <v>0.74795</v>
-      </c>
-      <c r="AN5">
-        <v>0.73524999999999996</v>
-      </c>
-      <c r="AO5">
-        <v>0.76300000000000001</v>
-      </c>
-      <c r="AP5">
-        <v>0.74909999999999999</v>
-      </c>
-      <c r="AQ5">
-        <v>0.75480000000000003</v>
-      </c>
-      <c r="AR5">
-        <v>0.75144999999999995</v>
-      </c>
       <c r="AS5">
-        <v>0.74250000000000005</v>
+        <v>0.74690000000000001</v>
       </c>
       <c r="AT5">
-        <v>0.73839999999999995</v>
+        <v>0.71225000000000005</v>
       </c>
       <c r="AU5">
-        <v>0.75719999999999998</v>
+        <v>0.74114999999999998</v>
       </c>
       <c r="AV5">
-        <v>0.76054999999999995</v>
+        <v>0.76975000000000005</v>
       </c>
       <c r="AW5">
-        <v>0.72130000000000005</v>
+        <v>0.72994999999999999</v>
       </c>
       <c r="AX5">
-        <v>0.73675000000000002</v>
+        <v>0.73550000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.73660000000000003</v>
+        <v>0.68530000000000002</v>
       </c>
       <c r="B6">
-        <v>0.72299999999999998</v>
+        <v>0.6885</v>
       </c>
       <c r="C6">
-        <v>0.73280000000000001</v>
+        <v>0.68494999999999995</v>
       </c>
       <c r="D6">
-        <v>0.7157</v>
+        <v>0.72860000000000003</v>
       </c>
       <c r="E6">
-        <v>0.74265000000000003</v>
+        <v>0.69694999999999996</v>
       </c>
       <c r="F6">
-        <v>0.71970000000000001</v>
+        <v>0.71930000000000005</v>
       </c>
       <c r="G6">
-        <v>0.67949999999999999</v>
+        <v>0.70515000000000005</v>
       </c>
       <c r="H6">
-        <v>0.72399999999999998</v>
+        <v>0.72555000000000003</v>
       </c>
       <c r="I6">
-        <v>0.71689999999999998</v>
+        <v>0.70050000000000001</v>
       </c>
       <c r="J6">
-        <v>0.74350000000000005</v>
+        <v>0.69674999999999998</v>
       </c>
       <c r="K6">
-        <v>0.73560000000000003</v>
+        <v>0.72035000000000005</v>
       </c>
       <c r="L6">
-        <v>0.72199999999999998</v>
+        <v>0.70930000000000004</v>
       </c>
       <c r="M6">
-        <v>0.72270000000000001</v>
+        <v>0.71340000000000003</v>
       </c>
       <c r="N6">
-        <v>0.70745000000000002</v>
+        <v>0.71214999999999995</v>
       </c>
       <c r="O6">
-        <v>0.74480000000000002</v>
+        <v>0.74460000000000004</v>
       </c>
       <c r="P6">
-        <v>0.70340000000000003</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="Q6">
-        <v>0.71565000000000001</v>
+        <v>0.72065000000000001</v>
       </c>
       <c r="R6">
-        <v>0.6986</v>
+        <v>0.71304999999999996</v>
       </c>
       <c r="S6">
-        <v>0.73975000000000002</v>
+        <v>0.71740000000000004</v>
       </c>
       <c r="T6">
-        <v>0.71809999999999996</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="U6">
-        <v>0.73224999999999996</v>
+        <v>0.73985000000000001</v>
       </c>
       <c r="V6">
-        <v>0.69720000000000004</v>
+        <v>0.73070000000000002</v>
       </c>
       <c r="W6">
-        <v>0.69340000000000002</v>
+        <v>0.71955000000000002</v>
       </c>
       <c r="X6">
-        <v>0.70469999999999999</v>
+        <v>0.68420000000000003</v>
       </c>
       <c r="Y6">
-        <v>0.69615000000000005</v>
+        <v>0.69</v>
       </c>
       <c r="Z6">
-        <v>0.72255000000000003</v>
+        <v>0.73460000000000003</v>
       </c>
       <c r="AA6">
-        <v>0.69835000000000003</v>
+        <v>0.73170000000000002</v>
       </c>
       <c r="AB6">
-        <v>0.71760000000000002</v>
+        <v>0.69874999999999998</v>
       </c>
       <c r="AC6">
-        <v>0.68640000000000001</v>
+        <v>0.74034999999999995</v>
       </c>
       <c r="AD6">
-        <v>0.69640000000000002</v>
+        <v>0.69384999999999997</v>
       </c>
       <c r="AE6">
-        <v>0.69640000000000002</v>
+        <v>0.72965000000000002</v>
       </c>
       <c r="AF6">
-        <v>0.69550000000000001</v>
+        <v>0.6774</v>
       </c>
       <c r="AG6">
-        <v>0.71665000000000001</v>
+        <v>0.70515000000000005</v>
       </c>
       <c r="AH6">
-        <v>0.75085000000000002</v>
+        <v>0.72929999999999995</v>
       </c>
       <c r="AI6">
-        <v>0.73934999999999995</v>
+        <v>0.68584999999999996</v>
       </c>
       <c r="AJ6">
-        <v>0.70894999999999997</v>
+        <v>0.70620000000000005</v>
       </c>
       <c r="AK6">
-        <v>0.69989999999999997</v>
+        <v>0.71060000000000001</v>
       </c>
       <c r="AL6">
-        <v>0.71020000000000005</v>
+        <v>0.72940000000000005</v>
       </c>
       <c r="AM6">
-        <v>0.73024999999999995</v>
+        <v>0.73970000000000002</v>
       </c>
       <c r="AN6">
-        <v>0.71440000000000003</v>
+        <v>0.70355000000000001</v>
       </c>
       <c r="AO6">
-        <v>0.71899999999999997</v>
+        <v>0.70650000000000002</v>
       </c>
       <c r="AP6">
-        <v>0.71184999999999998</v>
+        <v>0.70065</v>
       </c>
       <c r="AQ6">
-        <v>0.72655000000000003</v>
+        <v>0.72035000000000005</v>
       </c>
       <c r="AR6">
-        <v>0.71055000000000001</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="AS6">
-        <v>0.70020000000000004</v>
+        <v>0.71074999999999999</v>
       </c>
       <c r="AT6">
-        <v>0.71475</v>
+        <v>0.67964999999999998</v>
       </c>
       <c r="AU6">
-        <v>0.71030000000000004</v>
+        <v>0.70109999999999995</v>
       </c>
       <c r="AV6">
-        <v>0.74770000000000003</v>
+        <v>0.74139999999999995</v>
       </c>
       <c r="AW6">
-        <v>0.70379999999999998</v>
+        <v>0.69425000000000003</v>
       </c>
       <c r="AX6">
-        <v>0.71089999999999998</v>
+        <v>0.7097</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.70609999999999995</v>
+        <v>0.65564999999999996</v>
       </c>
       <c r="B7">
-        <v>0.68489999999999995</v>
+        <v>0.6774</v>
       </c>
       <c r="C7">
-        <v>0.70074999999999998</v>
+        <v>0.66449999999999998</v>
       </c>
       <c r="D7">
-        <v>0.68855</v>
+        <v>0.69440000000000002</v>
       </c>
       <c r="E7">
-        <v>0.70620000000000005</v>
+        <v>0.63654999999999995</v>
       </c>
       <c r="F7">
-        <v>0.70409999999999995</v>
+        <v>0.70899999999999996</v>
       </c>
       <c r="G7">
-        <v>0.66805000000000003</v>
+        <v>0.67395000000000005</v>
       </c>
       <c r="H7">
-        <v>0.68710000000000004</v>
+        <v>0.71945000000000003</v>
       </c>
       <c r="I7">
-        <v>0.67415000000000003</v>
+        <v>0.67279999999999995</v>
       </c>
       <c r="J7">
-        <v>0.70760000000000001</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="K7">
-        <v>0.69530000000000003</v>
+        <v>0.68384999999999996</v>
       </c>
       <c r="L7">
+        <v>0.6905</v>
+      </c>
+      <c r="M7">
+        <v>0.68284999999999996</v>
+      </c>
+      <c r="N7">
+        <v>0.68605000000000005</v>
+      </c>
+      <c r="O7">
+        <v>0.72775000000000001</v>
+      </c>
+      <c r="P7">
+        <v>0.70109999999999995</v>
+      </c>
+      <c r="Q7">
         <v>0.70004999999999995</v>
       </c>
-      <c r="M7">
-        <v>0.69715000000000005</v>
-      </c>
-      <c r="N7">
-        <v>0.70660000000000001</v>
-      </c>
-      <c r="O7">
-        <v>0.71240000000000003</v>
-      </c>
-      <c r="P7">
-        <v>0.6956</v>
-      </c>
-      <c r="Q7">
-        <v>0.69040000000000001</v>
-      </c>
       <c r="R7">
-        <v>0.69369999999999998</v>
+        <v>0.68045</v>
       </c>
       <c r="S7">
-        <v>0.70489999999999997</v>
+        <v>0.69950000000000001</v>
       </c>
       <c r="T7">
-        <v>0.69620000000000004</v>
+        <v>0.67230000000000001</v>
       </c>
       <c r="U7">
-        <v>0.73129999999999995</v>
+        <v>0.70669999999999999</v>
       </c>
       <c r="V7">
-        <v>0.67964999999999998</v>
+        <v>0.71135000000000004</v>
       </c>
       <c r="W7">
-        <v>0.67769999999999997</v>
+        <v>0.71745000000000003</v>
       </c>
       <c r="X7">
-        <v>0.69015000000000004</v>
+        <v>0.6885</v>
       </c>
       <c r="Y7">
-        <v>0.67395000000000005</v>
+        <v>0.66274999999999995</v>
       </c>
       <c r="Z7">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="AA7">
         <v>0.69804999999999995</v>
       </c>
-      <c r="AA7">
-        <v>0.67895000000000005</v>
-      </c>
       <c r="AB7">
-        <v>0.70425000000000004</v>
+        <v>0.66279999999999994</v>
       </c>
       <c r="AC7">
-        <v>0.67379999999999995</v>
+        <v>0.71440000000000003</v>
       </c>
       <c r="AD7">
-        <v>0.65880000000000005</v>
+        <v>0.64019999999999999</v>
       </c>
       <c r="AE7">
-        <v>0.68384999999999996</v>
+        <v>0.71540000000000004</v>
       </c>
       <c r="AF7">
-        <v>0.67064999999999997</v>
+        <v>0.66285000000000005</v>
       </c>
       <c r="AG7">
-        <v>0.69069999999999998</v>
+        <v>0.68984999999999996</v>
       </c>
       <c r="AH7">
-        <v>0.71560000000000001</v>
+        <v>0.69835000000000003</v>
       </c>
       <c r="AI7">
-        <v>0.71684999999999999</v>
+        <v>0.67979999999999996</v>
       </c>
       <c r="AJ7">
-        <v>0.68840000000000001</v>
+        <v>0.67945</v>
       </c>
       <c r="AK7">
-        <v>0.68220000000000003</v>
+        <v>0.70150000000000001</v>
       </c>
       <c r="AL7">
-        <v>0.70345000000000002</v>
+        <v>0.70269999999999999</v>
       </c>
       <c r="AM7">
-        <v>0.69645000000000001</v>
+        <v>0.7278</v>
       </c>
       <c r="AN7">
-        <v>0.68984999999999996</v>
+        <v>0.65249999999999997</v>
       </c>
       <c r="AO7">
-        <v>0.68369999999999997</v>
+        <v>0.69545000000000001</v>
       </c>
       <c r="AP7">
-        <v>0.69259999999999999</v>
+        <v>0.6673</v>
       </c>
       <c r="AQ7">
-        <v>0.69815000000000005</v>
+        <v>0.68925000000000003</v>
       </c>
       <c r="AR7">
-        <v>0.69305000000000005</v>
+        <v>0.67025000000000001</v>
       </c>
       <c r="AS7">
-        <v>0.66925000000000001</v>
+        <v>0.6986</v>
       </c>
       <c r="AT7">
-        <v>0.69525000000000003</v>
+        <v>0.67059999999999997</v>
       </c>
       <c r="AU7">
-        <v>0.68835000000000002</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="AV7">
-        <v>0.73180000000000001</v>
+        <v>0.71235000000000004</v>
       </c>
       <c r="AW7">
-        <v>0.69489999999999996</v>
+        <v>0.66485000000000005</v>
       </c>
       <c r="AX7">
-        <v>0.6905</v>
+        <v>0.70330000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.68820000000000003</v>
+        <v>0.63954999999999995</v>
       </c>
       <c r="B8">
-        <v>0.66190000000000004</v>
+        <v>0.65195000000000003</v>
       </c>
       <c r="C8">
-        <v>0.69289999999999996</v>
+        <v>0.64959999999999996</v>
       </c>
       <c r="D8">
-        <v>0.67610000000000003</v>
+        <v>0.67515000000000003</v>
       </c>
       <c r="E8">
-        <v>0.67415000000000003</v>
+        <v>0.61075000000000002</v>
       </c>
       <c r="F8">
-        <v>0.66644999999999999</v>
+        <v>0.69330000000000003</v>
       </c>
       <c r="G8">
-        <v>0.64670000000000005</v>
+        <v>0.66059999999999997</v>
       </c>
       <c r="H8">
-        <v>0.67059999999999997</v>
+        <v>0.69310000000000005</v>
       </c>
       <c r="I8">
-        <v>0.66315000000000002</v>
+        <v>0.65464999999999995</v>
       </c>
       <c r="J8">
-        <v>0.68120000000000003</v>
+        <v>0.64024999999999999</v>
       </c>
       <c r="K8">
-        <v>0.68310000000000004</v>
+        <v>0.6784</v>
       </c>
       <c r="L8">
-        <v>0.68240000000000001</v>
+        <v>0.68920000000000003</v>
       </c>
       <c r="M8">
-        <v>0.67249999999999999</v>
+        <v>0.65390000000000004</v>
       </c>
       <c r="N8">
-        <v>0.69404999999999994</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="O8">
-        <v>0.67869999999999997</v>
+        <v>0.69364999999999999</v>
       </c>
       <c r="P8">
-        <v>0.68095000000000006</v>
+        <v>0.67654999999999998</v>
       </c>
       <c r="Q8">
-        <v>0.67490000000000006</v>
+        <v>0.68369999999999997</v>
       </c>
       <c r="R8">
-        <v>0.67900000000000005</v>
+        <v>0.68325000000000002</v>
       </c>
       <c r="S8">
-        <v>0.68169999999999997</v>
+        <v>0.68189999999999995</v>
       </c>
       <c r="T8">
-        <v>0.67079999999999995</v>
+        <v>0.67625000000000002</v>
       </c>
       <c r="U8">
-        <v>0.69210000000000005</v>
+        <v>0.69620000000000004</v>
       </c>
       <c r="V8">
-        <v>0.67605000000000004</v>
+        <v>0.68189999999999995</v>
       </c>
       <c r="W8">
-        <v>0.64359999999999995</v>
+        <v>0.69135000000000002</v>
       </c>
       <c r="X8">
-        <v>0.6623</v>
+        <v>0.66274999999999995</v>
       </c>
       <c r="Y8">
-        <v>0.65874999999999995</v>
+        <v>0.65115000000000001</v>
       </c>
       <c r="Z8">
-        <v>0.66800000000000004</v>
+        <v>0.68520000000000003</v>
       </c>
       <c r="AA8">
+        <v>0.68474999999999997</v>
+      </c>
+      <c r="AB8">
+        <v>0.65144999999999997</v>
+      </c>
+      <c r="AC8">
+        <v>0.68710000000000004</v>
+      </c>
+      <c r="AD8">
+        <v>0.61695</v>
+      </c>
+      <c r="AE8">
+        <v>0.67589999999999995</v>
+      </c>
+      <c r="AF8">
+        <v>0.63985000000000003</v>
+      </c>
+      <c r="AG8">
+        <v>0.67759999999999998</v>
+      </c>
+      <c r="AH8">
+        <v>0.68369999999999997</v>
+      </c>
+      <c r="AI8">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="AJ8">
+        <v>0.64995000000000003</v>
+      </c>
+      <c r="AK8">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="AL8">
+        <v>0.66935</v>
+      </c>
+      <c r="AM8">
+        <v>0.68220000000000003</v>
+      </c>
+      <c r="AN8">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="AO8">
+        <v>0.67559999999999998</v>
+      </c>
+      <c r="AP8">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="AQ8">
+        <v>0.6905</v>
+      </c>
+      <c r="AR8">
+        <v>0.64544999999999997</v>
+      </c>
+      <c r="AS8">
+        <v>0.66474999999999995</v>
+      </c>
+      <c r="AT8">
+        <v>0.66874999999999996</v>
+      </c>
+      <c r="AU8">
+        <v>0.64295000000000002</v>
+      </c>
+      <c r="AV8">
+        <v>0.69410000000000005</v>
+      </c>
+      <c r="AW8">
         <v>0.66359999999999997</v>
       </c>
-      <c r="AB8">
-        <v>0.69320000000000004</v>
-      </c>
-      <c r="AC8">
-        <v>0.68705000000000005</v>
-      </c>
-      <c r="AD8">
-        <v>0.65925</v>
-      </c>
-      <c r="AE8">
-        <v>0.66285000000000005</v>
-      </c>
-      <c r="AF8">
-        <v>0.64754999999999996</v>
-      </c>
-      <c r="AG8">
-        <v>0.66569999999999996</v>
-      </c>
-      <c r="AH8">
-        <v>0.68074999999999997</v>
-      </c>
-      <c r="AI8">
-        <v>0.70760000000000001</v>
-      </c>
-      <c r="AJ8">
-        <v>0.68440000000000001</v>
-      </c>
-      <c r="AK8">
-        <v>0.66454999999999997</v>
-      </c>
-      <c r="AL8">
-        <v>0.6875</v>
-      </c>
-      <c r="AM8">
-        <v>0.6865</v>
-      </c>
-      <c r="AN8">
-        <v>0.67020000000000002</v>
-      </c>
-      <c r="AO8">
-        <v>0.66269999999999996</v>
-      </c>
-      <c r="AP8">
-        <v>0.65444999999999998</v>
-      </c>
-      <c r="AQ8">
-        <v>0.69140000000000001</v>
-      </c>
-      <c r="AR8">
-        <v>0.68289999999999995</v>
-      </c>
-      <c r="AS8">
-        <v>0.65480000000000005</v>
-      </c>
-      <c r="AT8">
-        <v>0.69179999999999997</v>
-      </c>
-      <c r="AU8">
-        <v>0.65129999999999999</v>
-      </c>
-      <c r="AV8">
-        <v>0.7238</v>
-      </c>
-      <c r="AW8">
-        <v>0.66259999999999997</v>
-      </c>
       <c r="AX8">
-        <v>0.67420000000000002</v>
+        <v>0.68899999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.68194999999999995</v>
+        <v>0.63290000000000002</v>
       </c>
       <c r="B9">
-        <v>0.63614999999999999</v>
+        <v>0.64410000000000001</v>
       </c>
       <c r="C9">
-        <v>0.67479999999999996</v>
+        <v>0.63859999999999995</v>
       </c>
       <c r="D9">
-        <v>0.64419999999999999</v>
+        <v>0.65769999999999995</v>
       </c>
       <c r="E9">
-        <v>0.64339999999999997</v>
+        <v>0.61495</v>
       </c>
       <c r="F9">
-        <v>0.65075000000000005</v>
+        <v>0.66990000000000005</v>
       </c>
       <c r="G9">
-        <v>0.61614999999999998</v>
+        <v>0.64180000000000004</v>
       </c>
       <c r="H9">
-        <v>0.64980000000000004</v>
+        <v>0.66415000000000002</v>
       </c>
       <c r="I9">
-        <v>0.65310000000000001</v>
+        <v>0.63070000000000004</v>
       </c>
       <c r="J9">
-        <v>0.67030000000000001</v>
+        <v>0.65185000000000004</v>
       </c>
       <c r="K9">
-        <v>0.66895000000000004</v>
+        <v>0.65344999999999998</v>
       </c>
       <c r="L9">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="M9">
+        <v>0.64910000000000001</v>
+      </c>
+      <c r="N9">
+        <v>0.68659999999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.70009999999999994</v>
+      </c>
+      <c r="P9">
+        <v>0.68089999999999995</v>
+      </c>
+      <c r="Q9">
+        <v>0.64749999999999996</v>
+      </c>
+      <c r="R9">
+        <v>0.66005000000000003</v>
+      </c>
+      <c r="S9">
+        <v>0.65280000000000005</v>
+      </c>
+      <c r="T9">
+        <v>0.66264999999999996</v>
+      </c>
+      <c r="U9">
+        <v>0.66485000000000005</v>
+      </c>
+      <c r="V9">
+        <v>0.66195000000000004</v>
+      </c>
+      <c r="W9">
+        <v>0.68310000000000004</v>
+      </c>
+      <c r="X9">
+        <v>0.63560000000000005</v>
+      </c>
+      <c r="Y9">
+        <v>0.62685000000000002</v>
+      </c>
+      <c r="Z9">
+        <v>0.67044999999999999</v>
+      </c>
+      <c r="AA9">
+        <v>0.66279999999999994</v>
+      </c>
+      <c r="AB9">
+        <v>0.63549999999999995</v>
+      </c>
+      <c r="AC9">
+        <v>0.67749999999999999</v>
+      </c>
+      <c r="AD9">
+        <v>0.61529999999999996</v>
+      </c>
+      <c r="AE9">
+        <v>0.67459999999999998</v>
+      </c>
+      <c r="AF9">
+        <v>0.64370000000000005</v>
+      </c>
+      <c r="AG9">
+        <v>0.65949999999999998</v>
+      </c>
+      <c r="AH9">
+        <v>0.65805000000000002</v>
+      </c>
+      <c r="AI9">
+        <v>0.66385000000000005</v>
+      </c>
+      <c r="AJ9">
+        <v>0.63495000000000001</v>
+      </c>
+      <c r="AK9">
+        <v>0.6633</v>
+      </c>
+      <c r="AL9">
+        <v>0.65480000000000005</v>
+      </c>
+      <c r="AM9">
+        <v>0.66635</v>
+      </c>
+      <c r="AN9">
+        <v>0.65980000000000005</v>
+      </c>
+      <c r="AO9">
+        <v>0.66695000000000004</v>
+      </c>
+      <c r="AP9">
         <v>0.65569999999999995</v>
       </c>
-      <c r="M9">
-        <v>0.65844999999999998</v>
-      </c>
-      <c r="N9">
-        <v>0.6774</v>
-      </c>
-      <c r="O9">
-        <v>0.66474999999999995</v>
-      </c>
-      <c r="P9">
-        <v>0.66049999999999998</v>
-      </c>
-      <c r="Q9">
-        <v>0.66779999999999995</v>
-      </c>
-      <c r="R9">
-        <v>0.64970000000000006</v>
-      </c>
-      <c r="S9">
-        <v>0.6694</v>
-      </c>
-      <c r="T9">
-        <v>0.67459999999999998</v>
-      </c>
-      <c r="U9">
-        <v>0.68759999999999999</v>
-      </c>
-      <c r="V9">
-        <v>0.65939999999999999</v>
-      </c>
-      <c r="W9">
-        <v>0.62544999999999995</v>
-      </c>
-      <c r="X9">
-        <v>0.64034999999999997</v>
-      </c>
-      <c r="Y9">
-        <v>0.63990000000000002</v>
-      </c>
-      <c r="Z9">
-        <v>0.68910000000000005</v>
-      </c>
-      <c r="AA9">
-        <v>0.66210000000000002</v>
-      </c>
-      <c r="AB9">
-        <v>0.67984999999999995</v>
-      </c>
-      <c r="AC9">
-        <v>0.67569999999999997</v>
-      </c>
-      <c r="AD9">
-        <v>0.66415000000000002</v>
-      </c>
-      <c r="AE9">
-        <v>0.65620000000000001</v>
-      </c>
-      <c r="AF9">
-        <v>0.66005000000000003</v>
-      </c>
-      <c r="AG9">
-        <v>0.66830000000000001</v>
-      </c>
-      <c r="AH9">
-        <v>0.66825000000000001</v>
-      </c>
-      <c r="AI9">
-        <v>0.70330000000000004</v>
-      </c>
-      <c r="AJ9">
-        <v>0.66869999999999996</v>
-      </c>
-      <c r="AK9">
-        <v>0.66115000000000002</v>
-      </c>
-      <c r="AL9">
-        <v>0.66639999999999999</v>
-      </c>
-      <c r="AM9">
-        <v>0.66990000000000005</v>
-      </c>
-      <c r="AN9">
-        <v>0.66739999999999999</v>
-      </c>
-      <c r="AO9">
-        <v>0.64180000000000004</v>
-      </c>
-      <c r="AP9">
-        <v>0.65859999999999996</v>
-      </c>
       <c r="AQ9">
-        <v>0.66080000000000005</v>
+        <v>0.67249999999999999</v>
       </c>
       <c r="AR9">
-        <v>0.66410000000000002</v>
+        <v>0.62709999999999999</v>
       </c>
       <c r="AS9">
-        <v>0.64219999999999999</v>
+        <v>0.66685000000000005</v>
       </c>
       <c r="AT9">
-        <v>0.70150000000000001</v>
+        <v>0.65959999999999996</v>
       </c>
       <c r="AU9">
-        <v>0.63234999999999997</v>
+        <v>0.5847</v>
       </c>
       <c r="AV9">
-        <v>0.68779999999999997</v>
+        <v>0.66180000000000005</v>
       </c>
       <c r="AW9">
-        <v>0.64629999999999999</v>
+        <v>0.65064999999999995</v>
       </c>
       <c r="AX9">
-        <v>0.65825</v>
+        <v>0.66539999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.67310000000000003</v>
+        <v>0.62839999999999996</v>
       </c>
       <c r="B10">
-        <v>0.63939999999999997</v>
+        <v>0.63965000000000005</v>
       </c>
       <c r="C10">
-        <v>0.65369999999999995</v>
+        <v>0.62039999999999995</v>
       </c>
       <c r="D10">
-        <v>0.62834999999999996</v>
+        <v>0.64875000000000005</v>
       </c>
       <c r="E10">
+        <v>0.60089999999999999</v>
+      </c>
+      <c r="F10">
+        <v>0.68020000000000003</v>
+      </c>
+      <c r="G10">
+        <v>0.63944999999999996</v>
+      </c>
+      <c r="H10">
+        <v>0.6583</v>
+      </c>
+      <c r="I10">
+        <v>0.61609999999999998</v>
+      </c>
+      <c r="J10">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="K10">
+        <v>0.62649999999999995</v>
+      </c>
+      <c r="L10">
         <v>0.64059999999999995</v>
       </c>
-      <c r="F10">
-        <v>0.6391</v>
-      </c>
-      <c r="G10">
-        <v>0.60985</v>
-      </c>
-      <c r="H10">
-        <v>0.63239999999999996</v>
-      </c>
-      <c r="I10">
-        <v>0.65439999999999998</v>
-      </c>
-      <c r="J10">
-        <v>0.66920000000000002</v>
-      </c>
-      <c r="K10">
-        <v>0.65480000000000005</v>
-      </c>
-      <c r="L10">
-        <v>0.64349999999999996</v>
-      </c>
       <c r="M10">
-        <v>0.62085000000000001</v>
+        <v>0.62955000000000005</v>
       </c>
       <c r="N10">
-        <v>0.67359999999999998</v>
+        <v>0.66879999999999995</v>
       </c>
       <c r="O10">
-        <v>0.64600000000000002</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="P10">
-        <v>0.66554999999999997</v>
+        <v>0.66190000000000004</v>
       </c>
       <c r="Q10">
+        <v>0.64949999999999997</v>
+      </c>
+      <c r="R10">
+        <v>0.66095000000000004</v>
+      </c>
+      <c r="S10">
+        <v>0.63919999999999999</v>
+      </c>
+      <c r="T10">
+        <v>0.63460000000000005</v>
+      </c>
+      <c r="U10">
+        <v>0.66279999999999994</v>
+      </c>
+      <c r="V10">
+        <v>0.62819999999999998</v>
+      </c>
+      <c r="W10">
+        <v>0.66295000000000004</v>
+      </c>
+      <c r="X10">
+        <v>0.60429999999999995</v>
+      </c>
+      <c r="Y10">
+        <v>0.60750000000000004</v>
+      </c>
+      <c r="Z10">
+        <v>0.6714</v>
+      </c>
+      <c r="AA10">
+        <v>0.65910000000000002</v>
+      </c>
+      <c r="AB10">
+        <v>0.61140000000000005</v>
+      </c>
+      <c r="AC10">
         <v>0.6542</v>
       </c>
-      <c r="R10">
-        <v>0.62490000000000001</v>
-      </c>
-      <c r="S10">
-        <v>0.67330000000000001</v>
-      </c>
-      <c r="T10">
-        <v>0.68045</v>
-      </c>
-      <c r="U10">
-        <v>0.70179999999999998</v>
-      </c>
-      <c r="V10">
-        <v>0.64075000000000004</v>
-      </c>
-      <c r="W10">
-        <v>0.61760000000000004</v>
-      </c>
-      <c r="X10">
-        <v>0.61145000000000005</v>
-      </c>
-      <c r="Y10">
-        <v>0.65110000000000001</v>
-      </c>
-      <c r="Z10">
-        <v>0.67254999999999998</v>
-      </c>
-      <c r="AA10">
+      <c r="AD10">
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="AE10">
+        <v>0.65544999999999998</v>
+      </c>
+      <c r="AF10">
+        <v>0.62649999999999995</v>
+      </c>
+      <c r="AG10">
+        <v>0.64834999999999998</v>
+      </c>
+      <c r="AH10">
+        <v>0.65634999999999999</v>
+      </c>
+      <c r="AI10">
+        <v>0.67249999999999999</v>
+      </c>
+      <c r="AJ10">
+        <v>0.64265000000000005</v>
+      </c>
+      <c r="AK10">
+        <v>0.67325000000000002</v>
+      </c>
+      <c r="AL10">
+        <v>0.62424999999999997</v>
+      </c>
+      <c r="AM10">
         <v>0.65510000000000002</v>
       </c>
-      <c r="AB10">
-        <v>0.66835</v>
-      </c>
-      <c r="AC10">
-        <v>0.68664999999999998</v>
-      </c>
-      <c r="AD10">
-        <v>0.65175000000000005</v>
-      </c>
-      <c r="AE10">
-        <v>0.65069999999999995</v>
-      </c>
-      <c r="AF10">
-        <v>0.6583</v>
-      </c>
-      <c r="AG10">
-        <v>0.63775000000000004</v>
-      </c>
-      <c r="AH10">
-        <v>0.64810000000000001</v>
-      </c>
-      <c r="AI10">
-        <v>0.68540000000000001</v>
-      </c>
-      <c r="AJ10">
-        <v>0.65800000000000003</v>
-      </c>
-      <c r="AK10">
-        <v>0.65764999999999996</v>
-      </c>
-      <c r="AL10">
-        <v>0.64290000000000003</v>
-      </c>
-      <c r="AM10">
-        <v>0.65954999999999997</v>
-      </c>
       <c r="AN10">
-        <v>0.64610000000000001</v>
+        <v>0.65080000000000005</v>
       </c>
       <c r="AO10">
-        <v>0.61750000000000005</v>
+        <v>0.64434999999999998</v>
       </c>
       <c r="AP10">
-        <v>0.65844999999999998</v>
+        <v>0.64949999999999997</v>
       </c>
       <c r="AQ10">
-        <v>0.67359999999999998</v>
+        <v>0.67030000000000001</v>
       </c>
       <c r="AR10">
-        <v>0.64485000000000003</v>
+        <v>0.61850000000000005</v>
       </c>
       <c r="AS10">
-        <v>0.65485000000000004</v>
+        <v>0.65144999999999997</v>
       </c>
       <c r="AT10">
-        <v>0.67159999999999997</v>
+        <v>0.64970000000000006</v>
       </c>
       <c r="AU10">
-        <v>0.63344999999999996</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="AV10">
-        <v>0.69604999999999995</v>
+        <v>0.67074999999999996</v>
       </c>
       <c r="AW10">
-        <v>0.62819999999999998</v>
+        <v>0.64670000000000005</v>
       </c>
       <c r="AX10">
-        <v>0.66279999999999994</v>
+        <v>0.6694</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.65225</v>
+        <v>0.62480000000000002</v>
       </c>
       <c r="B11">
-        <v>0.62414999999999998</v>
+        <v>0.61804999999999999</v>
       </c>
       <c r="C11">
-        <v>0.63249999999999995</v>
+        <v>0.60660000000000003</v>
       </c>
       <c r="D11">
-        <v>0.61419999999999997</v>
+        <v>0.63675000000000004</v>
       </c>
       <c r="E11">
-        <v>0.64249999999999996</v>
+        <v>0.58345000000000002</v>
       </c>
       <c r="F11">
-        <v>0.60289999999999999</v>
+        <v>0.67610000000000003</v>
       </c>
       <c r="G11">
-        <v>0.59489999999999998</v>
+        <v>0.62980000000000003</v>
       </c>
       <c r="H11">
-        <v>0.63759999999999994</v>
+        <v>0.63729999999999998</v>
       </c>
       <c r="I11">
-        <v>0.64459999999999995</v>
+        <v>0.6119</v>
       </c>
       <c r="J11">
-        <v>0.63400000000000001</v>
+        <v>0.63019999999999998</v>
       </c>
       <c r="K11">
-        <v>0.64015</v>
+        <v>0.61439999999999995</v>
       </c>
       <c r="L11">
-        <v>0.64710000000000001</v>
+        <v>0.62809999999999999</v>
       </c>
       <c r="M11">
-        <v>0.63065000000000004</v>
+        <v>0.62655000000000005</v>
       </c>
       <c r="N11">
-        <v>0.67044999999999999</v>
+        <v>0.67310000000000003</v>
       </c>
       <c r="O11">
-        <v>0.64559999999999995</v>
+        <v>0.67989999999999995</v>
       </c>
       <c r="P11">
-        <v>0.62285000000000001</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="Q11">
-        <v>0.65429999999999999</v>
+        <v>0.62409999999999999</v>
       </c>
       <c r="R11">
-        <v>0.63514999999999999</v>
+        <v>0.67349999999999999</v>
       </c>
       <c r="S11">
-        <v>0.65759999999999996</v>
+        <v>0.63165000000000004</v>
       </c>
       <c r="T11">
-        <v>0.64739999999999998</v>
+        <v>0.62690000000000001</v>
       </c>
       <c r="U11">
-        <v>0.68030000000000002</v>
+        <v>0.64390000000000003</v>
       </c>
       <c r="V11">
-        <v>0.63749999999999996</v>
+        <v>0.60860000000000003</v>
       </c>
       <c r="W11">
-        <v>0.5968</v>
+        <v>0.67815000000000003</v>
       </c>
       <c r="X11">
-        <v>0.61314999999999997</v>
+        <v>0.60675000000000001</v>
       </c>
       <c r="Y11">
-        <v>0.64654999999999996</v>
+        <v>0.61704999999999999</v>
       </c>
       <c r="Z11">
-        <v>0.64664999999999995</v>
+        <v>0.64190000000000003</v>
       </c>
       <c r="AA11">
-        <v>0.63029999999999997</v>
+        <v>0.65580000000000005</v>
       </c>
       <c r="AB11">
-        <v>0.66815000000000002</v>
+        <v>0.61729999999999996</v>
       </c>
       <c r="AC11">
-        <v>0.67415000000000003</v>
+        <v>0.63349999999999995</v>
       </c>
       <c r="AD11">
-        <v>0.62834999999999996</v>
+        <v>0.58420000000000005</v>
       </c>
       <c r="AE11">
-        <v>0.64200000000000002</v>
+        <v>0.65934999999999999</v>
       </c>
       <c r="AF11">
-        <v>0.66049999999999998</v>
+        <v>0.61309999999999998</v>
       </c>
       <c r="AG11">
-        <v>0.6472</v>
+        <v>0.63875000000000004</v>
       </c>
       <c r="AH11">
-        <v>0.63859999999999995</v>
+        <v>0.64410000000000001</v>
       </c>
       <c r="AI11">
-        <v>0.64615</v>
+        <v>0.65115000000000001</v>
       </c>
       <c r="AJ11">
-        <v>0.65744999999999998</v>
+        <v>0.62855000000000005</v>
       </c>
       <c r="AK11">
-        <v>0.63924999999999998</v>
+        <v>0.66820000000000002</v>
       </c>
       <c r="AL11">
-        <v>0.63</v>
+        <v>0.60429999999999995</v>
       </c>
       <c r="AM11">
-        <v>0.63265000000000005</v>
+        <v>0.63939999999999997</v>
       </c>
       <c r="AN11">
-        <v>0.63114999999999999</v>
+        <v>0.62860000000000005</v>
       </c>
       <c r="AO11">
-        <v>0.62250000000000005</v>
+        <v>0.62270000000000003</v>
       </c>
       <c r="AP11">
-        <v>0.6421</v>
+        <v>0.63629999999999998</v>
       </c>
       <c r="AQ11">
-        <v>0.64839999999999998</v>
+        <v>0.64480000000000004</v>
       </c>
       <c r="AR11">
-        <v>0.62639999999999996</v>
+        <v>0.64329999999999998</v>
       </c>
       <c r="AS11">
-        <v>0.62865000000000004</v>
+        <v>0.63270000000000004</v>
       </c>
       <c r="AT11">
-        <v>0.66610000000000003</v>
+        <v>0.63565000000000005</v>
       </c>
       <c r="AU11">
-        <v>0.62470000000000003</v>
+        <v>0.56430000000000002</v>
       </c>
       <c r="AV11">
-        <v>0.7077</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="AW11">
-        <v>0.60519999999999996</v>
+        <v>0.63834999999999997</v>
       </c>
       <c r="AX11">
-        <v>0.67479999999999996</v>
+        <v>0.66485000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/out/CE/falselink/Figori_algorithm_2.xlsx
+++ b/out/CE/falselink/Figori_algorithm_2.xlsx
@@ -25,7 +25,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -36,6 +36,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -64,8 +72,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -382,15 +393,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FE12E5-7D56-46F6-BADF-E148B909BFF0}">
-  <dimension ref="A1:AX11"/>
+  <dimension ref="A1:AY11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AX11"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AY1" sqref="AY1:AY11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0.80579999999999996</v>
       </c>
@@ -541,8 +552,12 @@
       <c r="AX1">
         <v>0.80320000000000003</v>
       </c>
+      <c r="AY1" s="1">
+        <f>AVERAGE(A1:AX1)</f>
+        <v>0.80001399999999989</v>
+      </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.79769999999999996</v>
       </c>
@@ -693,8 +708,12 @@
       <c r="AX2">
         <v>0.7913</v>
       </c>
+      <c r="AY2" s="1">
+        <f t="shared" ref="AY2:AY11" si="0">AVERAGE(A2:AX2)</f>
+        <v>0.7966390000000001</v>
+      </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.75754999999999995</v>
       </c>
@@ -845,8 +864,12 @@
       <c r="AX3">
         <v>0.78935</v>
       </c>
+      <c r="AY3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.78709899999999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.72819999999999996</v>
       </c>
@@ -997,8 +1020,12 @@
       <c r="AX4">
         <v>0.7571</v>
       </c>
+      <c r="AY4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.76497800000000016</v>
+      </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.72345000000000004</v>
       </c>
@@ -1149,8 +1176,12 @@
       <c r="AX5">
         <v>0.73550000000000004</v>
       </c>
+      <c r="AY5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.740008</v>
+      </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.68530000000000002</v>
       </c>
@@ -1301,8 +1332,12 @@
       <c r="AX6">
         <v>0.7097</v>
       </c>
+      <c r="AY6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.71096299999999968</v>
+      </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.65564999999999996</v>
       </c>
@@ -1453,8 +1488,12 @@
       <c r="AX7">
         <v>0.70330000000000004</v>
       </c>
+      <c r="AY7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.68704899999999991</v>
+      </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.63954999999999995</v>
       </c>
@@ -1605,8 +1644,12 @@
       <c r="AX8">
         <v>0.68899999999999995</v>
       </c>
+      <c r="AY8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.66955500000000012</v>
+      </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.63290000000000002</v>
       </c>
@@ -1757,8 +1800,12 @@
       <c r="AX9">
         <v>0.66539999999999999</v>
       </c>
+      <c r="AY9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.65457700000000008</v>
+      </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.62839999999999996</v>
       </c>
@@ -1909,8 +1956,12 @@
       <c r="AX10">
         <v>0.6694</v>
       </c>
+      <c r="AY10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.64340299999999984</v>
+      </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.62480000000000002</v>
       </c>
@@ -2060,6 +2111,10 @@
       </c>
       <c r="AX11">
         <v>0.66485000000000005</v>
+      </c>
+      <c r="AY11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.63361500000000004</v>
       </c>
     </row>
   </sheetData>
